--- a/数据整理/stocks/港股/01928-金沙中国有限公司.xlsx
+++ b/数据整理/stocks/港股/01928-金沙中国有限公司.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>78.08</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.40</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>78.08</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.40</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>113.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>47.04</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.67</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0390</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010895</t>
+          <t>009007</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华汇智优选混合C</t>
+          <t>兴全沪港深两年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>47.04</t>
+          <t>34.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7850</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009007</t>
+          <t>010895</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>兴全沪港深两年持有期混合</t>
+          <t>鹏华汇智优选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.76</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>47.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/01928-金沙中国有限公司.xlsx
+++ b/数据整理/stocks/港股/01928-金沙中国有限公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>108.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4812</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01928-金沙中国有限公司.xlsx
+++ b/数据整理/stocks/港股/01928-金沙中国有限公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -916,4 +917,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01928-金沙中国有限公司.xlsx
+++ b/数据整理/stocks/港股/01928-金沙中国有限公司.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -925,7 +926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,17 +937,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -956,14 +977,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.61</v>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -972,14 +1015,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>3.97</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="4">
@@ -988,13 +1121,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01928-金沙中国有限公司.xlsx
+++ b/数据整理/stocks/港股/01928-金沙中国有限公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1058,7 +1059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,17 +1070,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1089,14 +1110,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3789</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.28</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
@@ -1105,14 +1200,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2.61</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
@@ -1121,14 +1216,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>3.97</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="5">
@@ -1137,13 +1232,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01928-金沙中国有限公司.xlsx
+++ b/数据整理/stocks/港股/01928-金沙中国有限公司.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1153,7 +1154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1164,17 +1165,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1184,14 +1205,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.38</v>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5916</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1200,14 +1243,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.28</v>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3940</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1216,14 +1281,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.61</v>
+          <t>012884</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3940</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1232,14 +1319,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.97</v>
+          <t>000593</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1248,13 +1357,319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005676</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>118002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01928-金沙中国有限公司.xlsx
+++ b/数据整理/stocks/港股/01928-金沙中国有限公司.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005142</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>78.08</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0551</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005143</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>78.08</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0254</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>3</v>
       </c>
+      <c r="D5" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.08</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010894</t>
+          <t>009683</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华汇智优选混合A</t>
+          <t>汇添富创新增长一年定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>113.82</t>
+          <t>19.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>47.04</t>
+          <t>90.24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.0390</t>
+          <t>0.5916</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009007</t>
+          <t>160322</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴全沪港深两年持有期混合</t>
+          <t>华夏港股通精选股票(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>34.89</t>
+          <t>17.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.76</t>
+          <t>85.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7850</t>
+          <t>0.3940</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +715,264 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010895</t>
+          <t>012884</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华汇智优选混合C</t>
+          <t>华夏港股通精选股票(LOF) C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>17.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>47.04</t>
+          <t>85.87</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1490</t>
+          <t>0.3940</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000593</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005676</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>118002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -758,7 +986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,7 +1007,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -809,112 +1037,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010894</t>
+          <t>160322</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华汇智优选混合A</t>
+          <t>华夏港股通精选股票(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>108.35</t>
+          <t>14.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.76</t>
+          <t>84.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.4812</t>
+          <t>0.3789</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010895</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华汇智优选混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.76</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1143</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004098</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源港股通股息率50强股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.28</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1060,7 +1212,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,7 +1233,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1111,36 +1263,112 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160322</t>
+          <t>010894</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏港股通精选股票(LOF)</t>
+          <t>鹏华汇智优选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.19</t>
+          <t>108.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.43</t>
+          <t>79.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3789</t>
+          <t>2.4812</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1154,7 +1382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1175,7 +1403,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1205,36 +1433,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009683</t>
+          <t>010894</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富创新增长一年定期开放混合A</t>
+          <t>鹏华汇智优选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.72</t>
+          <t>113.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.24</t>
+          <t>47.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5916</t>
+          <t>3.0390</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1243,36 +1471,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160322</t>
+          <t>009007</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏港股通精选股票(LOF)</t>
+          <t>兴全沪港深两年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.75</t>
+          <t>34.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.87</t>
+          <t>89.76</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3940</t>
+          <t>0.7850</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1281,264 +1509,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012884</t>
+          <t>010895</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏港股通精选股票(LOF) C</t>
+          <t>鹏华汇智优选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.75</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.87</t>
+          <t>47.04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3940</t>
+          <t>0.1490</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000593</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0617</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005676</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0617</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>118002</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0617</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009684</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇添富创新增长一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.24</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0615</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005142</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>84.21</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0280</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005143</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>84.21</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0209</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1552,128 +1552,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.68</v>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.61</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.97</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.08</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/01928-金沙中国有限公司.xlsx
+++ b/数据整理/stocks/港股/01928-金沙中国有限公司.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.38</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.28</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2.61</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>3.97</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -583,6 +600,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7686</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4129</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001685</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富沪港深新价值股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>118002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强A（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000593</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005676</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强C（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>55.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -980,7 +1547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1074,7 +1641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1199,176 +1766,6 @@
       </c>
       <c r="H3" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010894</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华汇智优选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>108.35</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>79.76</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.4812</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010895</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华汇智优选混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.76</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1143</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004098</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源港股通股息率50强股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.28</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1443,26 +1840,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>113.82</t>
+          <t>108.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>47.04</t>
+          <t>79.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.0390</t>
+          <t>2.4812</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1471,32 +1868,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009007</t>
+          <t>010895</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴全沪港深两年持有期混合</t>
+          <t>鹏华汇智优选混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>34.89</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.76</t>
+          <t>79.76</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7850</t>
+          <t>0.1143</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1509,36 +1906,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010895</t>
+          <t>004098</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华汇智优选混合C</t>
+          <t>前海开源港股通股息率50强股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>47.04</t>
+          <t>87.28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1490</t>
+          <t>0.0112</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1547,6 +1944,176 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>113.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>47.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0390</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7850</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>47.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
